--- a/dataCase/run/DataCase_ALL.xlsx
+++ b/dataCase/run/DataCase_ALL.xlsx
@@ -356,8 +356,8 @@
   </sheetPr>
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
@@ -369,8 +369,8 @@
     <col width="32.875" customWidth="1" style="1" min="10" max="10"/>
     <col width="9" customWidth="1" style="1" min="11" max="14"/>
     <col width="16.625" customWidth="1" style="1" min="15" max="15"/>
-    <col width="9" customWidth="1" style="1" min="16" max="22"/>
-    <col width="9" customWidth="1" style="1" min="23" max="16384"/>
+    <col width="9" customWidth="1" style="1" min="16" max="23"/>
+    <col width="9" customWidth="1" style="1" min="24" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="40.5" customHeight="1">
@@ -520,7 +520,7 @@
       </c>
       <c r="D3" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="E3" s="1" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="D4" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="E4" s="1" t="inlineStr">
@@ -644,7 +644,7 @@
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="E5" s="1" t="inlineStr">
@@ -709,7 +709,7 @@
       </c>
       <c r="D6" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="E6" s="1" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="D7" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="E7" s="1" t="inlineStr">
@@ -815,7 +815,7 @@
       </c>
       <c r="D8" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="E8" s="1" t="inlineStr">
@@ -865,7 +865,7 @@
       </c>
       <c r="D9" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="E9" s="1" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="D10" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="E10" s="1" t="inlineStr">
@@ -973,7 +973,7 @@
       </c>
       <c r="D11" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="E11" s="1" t="inlineStr">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="D12" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="E12" s="1" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="D13" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="E13" s="1" t="inlineStr">
@@ -1149,7 +1149,7 @@
       </c>
       <c r="D14" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="E14" s="1" t="inlineStr">
@@ -1200,7 +1200,7 @@
       </c>
       <c r="D15" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="E15" s="1" t="inlineStr">
@@ -1262,7 +1262,7 @@
       </c>
       <c r="D16" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="E16" s="1" t="inlineStr">

--- a/dataCase/run/DataCase_ALL.xlsx
+++ b/dataCase/run/DataCase_ALL.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13530" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="datacase" sheetId="1" state="visible" r:id="rId1"/>
@@ -52,11 +52,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -354,261 +351,495 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T15" sqref="T15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
-  <cols>
-    <col width="9" customWidth="1" style="1" min="1" max="1"/>
-    <col width="23" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
-    <col width="41.625" bestFit="1" customWidth="1" style="1" min="3" max="3"/>
-    <col width="9" customWidth="1" style="1" min="4" max="9"/>
-    <col width="32.875" customWidth="1" style="1" min="10" max="10"/>
-    <col width="9" customWidth="1" style="1" min="11" max="14"/>
-    <col width="16.625" customWidth="1" style="1" min="15" max="15"/>
-    <col width="9" customWidth="1" style="1" min="16" max="23"/>
-    <col width="9" customWidth="1" style="1" min="24" max="16384"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" ht="40.5" customHeight="1">
-      <c r="A1" s="1" t="inlineStr">
+    <row r="1">
+      <c r="A1" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>接口名称</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>接口地址</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>是否执行</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>请求方式</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>header</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>header_type</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>content_type</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
         <is>
           <t>用例依赖</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>数据依赖key</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>数据依赖字段</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>请求数据</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>sql_statement</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>sql_execute_result</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>redis_statement</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>redis_execute_result</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>预期结果</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>实际结果</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="121.5" customHeight="1">
-      <c r="A2" s="1" t="n">
+    <row r="2">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>crm-模板课列表</t>
         </is>
       </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>/course/name</t>
         </is>
       </c>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E2" s="1" t="inlineStr">
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
         <is>
           <t>get</t>
         </is>
       </c>
-      <c r="F2" s="1" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>crm</t>
         </is>
       </c>
-      <c r="J2" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">time: 1583323735778
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>application/x-www-form-urlencoded</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>time: 1583323735778
 course_class_id: 7
 current_page: 1
 per_page: 20
-keywords: </t>
-        </is>
-      </c>
-      <c r="O2" s="1" t="inlineStr">
-        <is>
-          <t>select  course_name_id,course_name from nc_course_name where course_class_id='7' and is_put=1  ORDER BY create_time desc</t>
+keywords: ZA_01_03_01</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
+          <t>"msg": "成功"</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
           <t>pass</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="189" customHeight="1">
-      <c r="A3" s="1" t="n">
+    <row r="3">
+      <c r="A3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>crm-编辑模板课列表</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>/course/name</t>
         </is>
       </c>
-      <c r="D3" s="1" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="E3" s="1" t="inlineStr">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>put</t>
         </is>
       </c>
-      <c r="F3" s="1" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>crm</t>
         </is>
       </c>
-      <c r="G3" s="1" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>application/x-www-form-urlencoded</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>1</v>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>dependKeyRow_3</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>dependFieldRow_3</t>
-        </is>
-      </c>
-      <c r="J3" s="1" t="inlineStr">
-        <is>
-          <t>course_name_id:188
-course_name_sn:ZB_01_04_01
-course_name:抢跑“开学季”——朗培F4导师开学21天陪练营”
-course_class_id:7
-price:1980.00
-member_price:1980.00
-least_price:1980.00
-is_deposit:1
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>course_name_id:40
+course_name_sn:ZB_01_03_0140
+course_name:讲师顾问班：家庭教育，品牌再造
+course_class_id:12
+price:2980.0
+member_price:2980.0
+least_price:300.0
+is_deposit:0
 hr_id:2
-meth_id:2
+meth_id:13
 use_card_number:1
 is_auto_refund:1
-is_refund_audit:0</t>
-        </is>
-      </c>
-      <c r="K3" s="1" t="inlineStr">
+is_refund_audit:0
+course_broker_id:1
+create_admin_id:0
+current_daiding_course_id:960
+is_auto_legacy:0
+is_put:1
+legacy_hours:0
+org_id:1
+perf_comp_id:0
+update_admin_id:2727
+use_ticket_number:1
+create_time:1551407421
+delete_time:0
+update_time:1578288985</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
         <is>
           <t>select *from nc_course_name where is_put=1 and course_name_id&lt;50 order by create_time desc ;</t>
         </is>
       </c>
-      <c r="O3" s="1" t="inlineStr">
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>SqlExecuteResultRow_3_nc_course_name</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>"msg": "成功"</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="67.5" customHeight="1">
-      <c r="A4" s="1" t="n">
+    <row r="4">
+      <c r="A4" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="inlineStr">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>fwhc-用户信息</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>/index/user/info</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>fwhc</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>x-www-form-urlencoded</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>timestamp: 1584260181570
+sign: 1c493743b871d558aca98e839d379aaaacad783b</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>"state": true</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>fwhc-编辑用户信息</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>/index/user/save</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>fwhc</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>x-www-form-urlencoded</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>nicke_name: 漂杳
+timestamp: 1584260570939
+sign: fbcf456f22eac4ea61d9beb5ec82ef7ca30f4409</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>"state": true</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>fwhc-订单列表</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>/index/Courseorder/getCourseOrderList</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>fwhc</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>x-www-form-urlencoded</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>page: 1
+page_size: 6
+keywords: 
+status: 1
+timestamp: 1584260652395
+sign: 9004d7e8fda70fa291c03db04c965ca9419d24f8</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>"state": true</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>fwhc-订单详情</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>/index/Courseorder/getCourseOrderInfo</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>fwhc</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>x-www-form-urlencoded</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>co_id: 15738
+order_id: 11665
+timestamp: 1584260691009
+sign: d50531264aa45c885f3cea8b5d2b956a3b6df9da</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>"state": true</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>fwhadminbanner列表</t>
         </is>
       </c>
-      <c r="C4" s="1" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>/system/banner/index.html</t>
         </is>
       </c>
-      <c r="D4" s="1" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="E4" s="1" t="inlineStr">
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>get</t>
         </is>
       </c>
-      <c r="F4" s="1" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>fwh_admin</t>
         </is>
       </c>
-      <c r="J4" s="1" t="inlineStr">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>XMLHttpRequest</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
         <is>
           <t xml:space="preserve">page: 1
 limit: 10
@@ -617,60 +848,65 @@
 endDate: </t>
         </is>
       </c>
-      <c r="O4" s="1" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>"code": 1</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="189" customHeight="1">
-      <c r="A5" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="inlineStr">
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>fwhadmin-编辑banner</t>
         </is>
       </c>
-      <c r="C5" s="1" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>/system/banner/editBanner.html</t>
         </is>
       </c>
-      <c r="D5" s="1" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="E5" s="1" t="inlineStr">
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="F5" s="1" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>fwh_admin</t>
         </is>
       </c>
-      <c r="G5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>dependKeyRow_5</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>dependFieldRow_5</t>
-        </is>
-      </c>
-      <c r="J5" s="1" t="inlineStr">
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>XMLHttpRequest</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>dependKeyRow_9</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>dependFieldRow_9</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
         <is>
           <t>ban_name:校长，别再那么累
 link:https://fuwuhao.lpcollege.com/#/courseDetails/1502
@@ -679,490 +915,280 @@
 file:
 image:https://crm.mp.image.lpcollege.com/fwh/official/banner/2019-10-24/de88ac1caa5ede52023cae58a2f7ee54.jpg
 __token__:b09ef4430749cd5ecb6fb86e7a8d12f7
-ban_id:8</t>
-        </is>
-      </c>
-      <c r="O5" s="1" t="inlineStr">
+ban_id:8
+co_id:15738
+order_id:11665</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
         <is>
           <t>"code": 1</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="54" customHeight="1">
-      <c r="A6" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>fwhc-用户信息</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t>/index/user/info</t>
-        </is>
-      </c>
-      <c r="D6" s="1" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="E6" s="1" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="F6" s="1" t="inlineStr">
-        <is>
-          <t>fwhc</t>
-        </is>
-      </c>
-      <c r="J6" s="1" t="inlineStr">
-        <is>
-          <t>timestamp: 1584260181570
-sign: 1c493743b871d558aca98e839d379aaaacad783b</t>
-        </is>
-      </c>
-      <c r="O6" s="1" t="inlineStr">
-        <is>
-          <t>"state": true</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" ht="54" customHeight="1">
-      <c r="A7" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>fwhc-编辑用户信息</t>
-        </is>
-      </c>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
-          <t>/index/user/save</t>
-        </is>
-      </c>
-      <c r="D7" s="1" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="E7" s="1" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="F7" s="1" t="inlineStr">
-        <is>
-          <t>fwhc</t>
-        </is>
-      </c>
-      <c r="G7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>dependKeyRow_7</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>dependFieldRow_7</t>
-        </is>
-      </c>
-      <c r="J7" s="1" t="inlineStr">
-        <is>
-          <t>nicke_name:漂杳
-timestamp:1584260570939
-sign:fbcf456f22eac4ea61d9beb5ec82ef7ca30f4409</t>
-        </is>
-      </c>
-      <c r="O7" s="1" t="inlineStr">
-        <is>
-          <t>"state": true</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="8" ht="108" customHeight="1">
-      <c r="A8" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="inlineStr">
-        <is>
-          <t>fwhc-订单列表</t>
-        </is>
-      </c>
-      <c r="C8" s="1" t="inlineStr">
-        <is>
-          <t>/index/Courseorder/getCourseOrderList</t>
-        </is>
-      </c>
-      <c r="D8" s="1" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="E8" s="1" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="F8" s="1" t="inlineStr">
-        <is>
-          <t>fwhc</t>
-        </is>
-      </c>
-      <c r="J8" s="1" t="inlineStr">
-        <is>
-          <t>page: 1
-page_size: 6
-keywords: 
-status: 1
-timestamp: 1584260652395
-sign: 9004d7e8fda70fa291c03db04c965ca9419d24f8</t>
-        </is>
-      </c>
-      <c r="O8" s="1" t="inlineStr">
-        <is>
-          <t>"state": true</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="67.5" customHeight="1">
-      <c r="A9" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="inlineStr">
-        <is>
-          <t>fwhc-订单详情</t>
-        </is>
-      </c>
-      <c r="C9" s="1" t="inlineStr">
-        <is>
-          <t>/index/Courseorder/getCourseOrderInfo</t>
-        </is>
-      </c>
-      <c r="D9" s="1" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="E9" s="1" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="F9" s="1" t="inlineStr">
-        <is>
-          <t>fwhc</t>
-        </is>
-      </c>
-      <c r="G9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>dependKeyRow_9</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>dependFieldRow_9</t>
-        </is>
-      </c>
-      <c r="J9" s="1" t="inlineStr">
-        <is>
-          <t>co_id:15738
-order_id:11665
-timestamp:1584260691009
-sign:d50531264aa45c885f3cea8b5d2b956a3b6df9da</t>
-        </is>
-      </c>
-      <c r="O9" s="1" t="inlineStr">
-        <is>
-          <t>"state": true</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="10" ht="40.5" customHeight="1">
-      <c r="A10" s="1" t="n">
+    <row r="10">
+      <c r="A10" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>crm-学习卡列表</t>
         </is>
       </c>
-      <c r="C10" s="1" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>/stuCardList</t>
         </is>
       </c>
-      <c r="D10" s="1" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="E10" s="1" t="inlineStr">
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>get</t>
         </is>
       </c>
-      <c r="F10" s="1" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>crm</t>
         </is>
       </c>
-      <c r="J10" s="1" t="inlineStr">
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>form_urlencoded</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
         <is>
           <t>time: 1584261300407
 current_page: 1
 per_page: 20</t>
         </is>
       </c>
-      <c r="O10" s="1" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>"msg": "成功"</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
       </c>
     </row>
-    <row r="11" ht="175.5" customHeight="1">
-      <c r="A11" s="1" t="n">
+    <row r="11">
+      <c r="A11" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>crm-学习卡编辑</t>
         </is>
       </c>
-      <c r="C11" s="1" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>/stuCardEdit</t>
         </is>
       </c>
-      <c r="D11" s="1" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="E11" s="1" t="inlineStr">
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>put</t>
         </is>
       </c>
-      <c r="F11" s="1" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>crm</t>
         </is>
       </c>
-      <c r="G11" s="1" t="n">
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>form_urlencoded</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>9</v>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>dependKeyRow_11</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>dependFieldRow_11</t>
-        </is>
-      </c>
-      <c r="J11" s="1" t="inlineStr">
-        <is>
-          <t>card_manage_id:17
-keys[0]:0
-study_card_name:微笑绿萝加盟
-price:98000.00
-number:0
-least_price:1.00
-org_id:4
-meth_id:16
-year:3
-month:0
-ticket[0][ticket_manage_id]:10
-ticket[0][ticket_num]:4
-period:36</t>
-        </is>
-      </c>
-      <c r="O11" s="1" t="inlineStr">
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>card_manage_id: 17
+keys[0]: 0
+study_card_name: 微笑绿萝加盟
+price: 98000.00
+number: 0
+least_price: 1.00
+org_id: 4
+meth_id: 16
+year: 3
+month: 0
+ticket[0][ticket_manage_id]: 10
+ticket[0][ticket_num]: 4
+period: 36</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
         <is>
           <t>"msg": "成功"</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="12" ht="54" customHeight="1">
-      <c r="A12" s="1" t="n">
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>Filed</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>fwhc-用户信息</t>
         </is>
       </c>
-      <c r="C12" s="1" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>/index/user/info</t>
         </is>
       </c>
-      <c r="D12" s="1" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="E12" s="1" t="inlineStr">
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="F12" s="1" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>fwhc</t>
         </is>
       </c>
-      <c r="J12" s="1" t="inlineStr">
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>form-urlencoded</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
         <is>
           <t>timestamp: 1584260181570
 sign: 1c493743b871d558aca98e839d379aaaacad783b</t>
         </is>
       </c>
-      <c r="O12" s="1" t="inlineStr">
+      <c r="P12" t="inlineStr">
         <is>
           <t>"state": true</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
+      <c r="Q12" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
       </c>
     </row>
-    <row r="13" ht="54" customHeight="1">
-      <c r="A13" s="1" t="n">
+    <row r="13">
+      <c r="A13" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="inlineStr">
+      <c r="B13" t="inlineStr">
         <is>
           <t>fwhc-编辑用户信息</t>
         </is>
       </c>
-      <c r="C13" s="1" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>/index/user/save</t>
         </is>
       </c>
-      <c r="D13" s="1" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="E13" s="1" t="inlineStr">
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="F13" s="1" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>fwhc</t>
         </is>
       </c>
-      <c r="G13" s="1" t="n">
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>form-urlencoded</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
         <v>11</v>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>dependKeyRow_13</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>dependFieldRow_13</t>
-        </is>
-      </c>
-      <c r="J13" s="1" t="inlineStr">
-        <is>
-          <t>sc_code_id:1
-timestamp:1584261510843
-sign:fd206c2bd9c2b9e897e8867a75558219d4edfb12</t>
-        </is>
-      </c>
-      <c r="O13" s="1" t="inlineStr">
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>sc_code_id: 1
+timestamp: 1584261510843
+sign: fd206c2bd9c2b9e897e8867a75558219d4edfb12</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
         <is>
           <t>"state": true</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
+      <c r="Q13" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
       </c>
     </row>
-    <row r="14" ht="94.5" customHeight="1">
-      <c r="A14" s="1" t="n">
+    <row r="14">
+      <c r="A14" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="1" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>fwhadmin-角色列表</t>
         </is>
       </c>
-      <c r="C14" s="1" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>/system/role/role.html</t>
         </is>
       </c>
-      <c r="D14" s="1" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="E14" s="1" t="inlineStr">
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>get</t>
         </is>
       </c>
-      <c r="F14" s="1" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>fwh_admin</t>
         </is>
       </c>
-      <c r="J14" s="1" t="inlineStr">
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>xml</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
         <is>
           <t xml:space="preserve">page: 1
 limit: 20
@@ -1173,60 +1199,65 @@
 cendDate:  </t>
         </is>
       </c>
-      <c r="O14" s="1" t="inlineStr">
+      <c r="P14" t="inlineStr">
         <is>
           <t>"code": 1</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
+      <c r="Q14" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
       </c>
     </row>
-    <row r="15" ht="81" customHeight="1">
-      <c r="A15" s="1" t="n">
+    <row r="15">
+      <c r="A15" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="1" t="inlineStr">
+      <c r="B15" t="inlineStr">
         <is>
           <t>fwhadmin-修改角色信息</t>
         </is>
       </c>
-      <c r="C15" s="1" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>/system/role/editrole.html</t>
         </is>
       </c>
-      <c r="D15" s="1" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="E15" s="1" t="inlineStr">
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="F15" s="1" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>fwh_admin</t>
         </is>
       </c>
-      <c r="G15" s="1" t="n">
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>xml</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
         <v>13</v>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>dependKeyRow_15</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>dependFieldRow_15</t>
         </is>
       </c>
-      <c r="J15" s="1" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>name:课程管理员
 auth[0]:[
@@ -1235,50 +1266,55 @@
 id:3</t>
         </is>
       </c>
-      <c r="O15" s="1" t="inlineStr">
+      <c r="P15" t="inlineStr">
         <is>
           <t>"code": 1</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
+      <c r="Q15" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
       </c>
     </row>
-    <row r="16" ht="108" customHeight="1">
-      <c r="A16" s="1" t="n">
+    <row r="16">
+      <c r="A16" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="1" t="inlineStr">
+      <c r="B16" t="inlineStr">
         <is>
           <t>fwhadmin-意见反馈列表</t>
         </is>
       </c>
-      <c r="C16" s="1" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>/system/feedback/index.html</t>
         </is>
       </c>
-      <c r="D16" s="1" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="E16" s="1" t="inlineStr">
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>get</t>
         </is>
       </c>
-      <c r="F16" s="1" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>fwh_admin</t>
         </is>
       </c>
-      <c r="G16" s="1" t="n">
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>xml</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
         <v>13</v>
       </c>
-      <c r="J16" s="1" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>page:1
 limit:10
@@ -1287,22 +1323,22 @@
 endDate:</t>
         </is>
       </c>
-      <c r="K16" s="1" t="inlineStr">
+      <c r="L16" t="inlineStr">
         <is>
           <t>select name keywords from fw_user where tel='18883612485' ;</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="M16" t="inlineStr">
         <is>
           <t>SqlExecuteResultRow_16_fw_user</t>
         </is>
       </c>
-      <c r="O16" s="1" t="inlineStr">
+      <c r="P16" t="inlineStr">
         <is>
           <t>"code": 1</t>
         </is>
       </c>
-      <c r="P16" t="inlineStr">
+      <c r="Q16" t="inlineStr">
         <is>
           <t>pass</t>
         </is>

--- a/dataCase/run/DataCase_ALL.xlsx
+++ b/dataCase/run/DataCase_ALL.xlsx
@@ -351,10 +351,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q16"/>
+  <dimension ref="A1:R20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T15" sqref="T15"/>
+      <selection activeCell="U13" sqref="U13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
@@ -417,30 +417,35 @@
       </c>
       <c r="L1" t="inlineStr">
         <is>
+          <t>关联files信息</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
           <t>sql_statement</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>sql_execute_result</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>redis_statement</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>redis_execute_result</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>预期结果</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>实际结果</t>
         </is>
@@ -489,12 +494,12 @@
 keywords: ZA_01_03_01</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>"msg": "成功"</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="R2" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -539,50 +544,32 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>course_name_id:40
-course_name_sn:ZB_01_03_0140
-course_name:讲师顾问班：家庭教育，品牌再造
-course_class_id:12
-price:2980.0
-member_price:2980.0
-least_price:300.0
+          <t>course_name_id:86
+course_name_sn:ZA_01_03_01
+course_name:教培业盈利高增长运营模式3.0
+course_class_id:7
+price:2980.00
+member_price:2980.00
+least_price:980.00
 is_deposit:0
 hr_id:2
-meth_id:13
+meth_id:2
 use_card_number:1
 is_auto_refund:1
-is_refund_audit:0
-course_broker_id:1
-create_admin_id:0
-current_daiding_course_id:960
-is_auto_legacy:0
-is_put:1
-legacy_hours:0
-org_id:1
-perf_comp_id:0
-update_admin_id:2727
-use_ticket_number:1
-create_time:1551407421
-delete_time:0
-update_time:1578288985</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
+is_refund_audit:0</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
         <is>
           <t>select *from nc_course_name where is_put=1 and course_name_id&lt;50 order by create_time desc ;</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>SqlExecuteResultRow_3_nc_course_name</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>"msg": "成功"</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="R3" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -628,12 +615,12 @@
 sign: 1c493743b871d558aca98e839d379aaaacad783b</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>"state": true</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="R4" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -683,12 +670,12 @@
 sign: fbcf456f22eac4ea61d9beb5ec82ef7ca30f4409</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>"state": true</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="R5" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -738,12 +725,12 @@
 sign: 9004d7e8fda70fa291c03db04c965ca9419d24f8</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>"state": true</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="R6" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -794,12 +781,12 @@
 sign: d50531264aa45c885f3cea8b5d2b956a3b6df9da</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>"state": true</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="R7" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -848,12 +835,12 @@
 endDate: </t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>"code": 1</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="R8" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -896,36 +883,24 @@
       <c r="H9" t="n">
         <v>7</v>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>dependKeyRow_9</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>dependFieldRow_9</t>
-        </is>
-      </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>ban_name:校长，别再那么累
-link:https://fuwuhao.lpcollege.com/#/courseDetails/1502
-sort:13
-is_show:1
-file:
-image:https://crm.mp.image.lpcollege.com/fwh/official/banner/2019-10-24/de88ac1caa5ede52023cae58a2f7ee54.jpg
-__token__:b09ef4430749cd5ecb6fb86e7a8d12f7
-ban_id:8
-co_id:15738
-order_id:11665</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
+          <t>ban_name: 校长，别再那么累
+link: https://fuwuhao.lpcollege.com/#/courseDetails/1502
+sort: 13
+is_show: 1
+file: 
+image: https://crm.mp.image.lpcollege.com/fwh/official/banner/2019-10-24/de88ac1caa5ede52023cae58a2f7ee54.jpg
+__token__: b09ef4430749cd5ecb6fb86e7a8d12f7
+ban_id: 8</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
         <is>
           <t>"code": 1</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="R9" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -972,12 +947,12 @@
 per_page: 20</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>"msg": "成功"</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="R10" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -1037,12 +1012,12 @@
 period: 36</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>"msg": "成功"</t>
         </is>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="R11" t="inlineStr">
         <is>
           <t>Filed</t>
         </is>
@@ -1054,12 +1029,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>fwhc-用户信息</t>
+          <t>crm上传会务指南</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>/index/user/info</t>
+          <t>/document/upload</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1074,26 +1049,35 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>fwhc</t>
+          <t>crm</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>form-urlencoded</t>
+          <t>form-data-boundary</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>timestamp: 1584260181570
-sign: 1c493743b871d558aca98e839d379aaaacad783b</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>"state": true</t>
+          <t>title:1.png
+course_name_id:63
+course_id:1112
+desc:7
+doc_type:1
+is_public:1</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>('file','C:\\Users\\Acer\\Pictures\\Screenshots\\10086.png')</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
+        <is>
+          <t>"msg": "成功"</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -1105,90 +1089,191 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>fwhc-用户信息</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>/index/user/info</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>fwhc</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>form-urlencoded</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>timestamp: 1584260181570
+sign: 1c493743b871d558aca98e839d379aaaacad783b</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>"state": true</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
           <t>fwhc-编辑用户信息</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>/index/user/save</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>fwhc</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>form-urlencoded</t>
         </is>
       </c>
-      <c r="H13" t="n">
-        <v>11</v>
-      </c>
-      <c r="K13" t="inlineStr">
+      <c r="H14" t="n">
+        <v>12</v>
+      </c>
+      <c r="K14" t="inlineStr">
         <is>
           <t>sc_code_id: 1
 timestamp: 1584261510843
 sign: fd206c2bd9c2b9e897e8867a75558219d4edfb12</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
+      <c r="Q14" t="inlineStr">
         <is>
           <t>"state": true</t>
         </is>
       </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" t="inlineStr">
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>fwhc-上传头像</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>/index/user/save</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>fwhc</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>form_data_boundary</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>('head','C:\\Users\\Acer\\Pictures\\Screenshots\\1.png')</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>"state": true</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>fwhadmin-角色列表</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>/system/role/role.html</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>get</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>fwh_admin</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>xml</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t xml:space="preserve">page: 1
 limit: 20
@@ -1199,146 +1284,241 @@
 cendDate:  </t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
+      <c r="Q16" t="inlineStr">
         <is>
           <t>"code": 1</t>
         </is>
       </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" t="inlineStr">
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>fwhadmin-修改角色信息</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>/system/role/editrole.html</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>fwh_admin</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>xml</t>
         </is>
       </c>
-      <c r="H15" t="n">
-        <v>13</v>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>dependKeyRow_15</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>dependFieldRow_15</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>name:课程管理员
-auth[0]:[
-auth[2]:1
-__token__:01d2c62f181ebf88af76ce66f8b61ac5
-id:3</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
+      <c r="H17" t="n">
+        <v>15</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>name: 课程管理员
+auth[0]: 1
+auth[2]: 142
+__token__: 01d2c62f181ebf88af76ce66f8b61ac5
+id: 3</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
         <is>
           <t>"code": 1</t>
         </is>
       </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>fwhadmin-意见反馈列表</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>/system/feedback/index.html</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>fwh_admin</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>xml</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
         <v>15</v>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>fwhadmin-意见反馈列表</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>/system/feedback/index.html</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>page: 1
+limit: 10
+keywords: 
+startDate: 
+endDate:</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>select name keywords from fw_user where tel='18883612485' ;</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>"code": 1</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>fwhadmin-上传图片</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>/system/common/UploadUpYun.html</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
         <is>
           <t>fwh_admin</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>xml</t>
         </is>
       </c>
-      <c r="H16" t="n">
-        <v>13</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>page:1
-limit:10
-keywords:秦敏
-startDate:
-endDate:</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>select name keywords from fw_user where tel='18883612485' ;</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>SqlExecuteResultRow_16_fw_user</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr">
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>('file','C:\\Users\\Acer\\Pictures\\Screenshots\\10086.png')</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>"code": '0'</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>fwhadmin-编辑banner</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>/system/banner/editBanner.html</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>fwh_admin</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>xml</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>18</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>ban_name: 校长，别再那么累
+link: https://fuwuhao.lpcollege.com/#/courseDetails/1502
+sort: 13
+is_show: 1
+file: 
+image: https://crm.mp.image.lpcollege.com/fwh/official/banner/2019-10-24/de88ac1caa5ede52023cae58a2f7ee54.jpg
+__token__: 4b111ac68e43b25b34e4ed4f8030423f
+ban_id: 8</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
         <is>
           <t>"code": 1</t>
         </is>
       </c>
-      <c r="Q16" t="inlineStr">
+      <c r="R20" t="inlineStr">
         <is>
           <t>pass</t>
         </is>

--- a/dataCase/run/DataCase_ALL.xlsx
+++ b/dataCase/run/DataCase_ALL.xlsx
@@ -354,7 +354,7 @@
   <dimension ref="A1:R20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U13" sqref="U13"/>
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
@@ -499,11 +499,6 @@
           <t>"msg": "成功"</t>
         </is>
       </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -542,21 +537,41 @@
       <c r="H3" t="n">
         <v>1</v>
       </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>dependKeyRow_3</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>dependFieldRow_3</t>
+        </is>
+      </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>course_name_id:86
-course_name_sn:ZA_01_03_01
-course_name:教培业盈利高增长运营模式3.0
-course_class_id:7
-price:2980.00
-member_price:2980.00
-least_price:980.00
-is_deposit:0
+          <t>course_name_id:195
+course_name_sn:JB_04_02_01
+course_name:有义方智慧父母大学
+course_class_id:10
+price:4900.00
+member_price:4900.00
+least_price:4900.00
+is_deposit:1
 hr_id:2
 meth_id:2
 use_card_number:1
-is_auto_refund:1
-is_refund_audit:0</t>
+is_auto_refund:0
+is_refund_audit:0
+course_broker_id:1
+create_admin_id:0
+current_daiding_course_id:1629
+is_auto_legacy:0
+is_put:1
+legacy_hours:0
+org_id:1
+perf_comp_id:0
+update_admin_id:2727
+use_ticket_number:1</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -564,14 +579,14 @@
           <t>select *from nc_course_name where is_put=1 and course_name_id&lt;50 order by create_time desc ;</t>
         </is>
       </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>SqlExecuteResultRow_3_nc_course_name</t>
+        </is>
+      </c>
       <c r="Q3" t="inlineStr">
         <is>
           <t>"msg": "成功"</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>pass</t>
         </is>
       </c>
     </row>
@@ -620,11 +635,6 @@
           <t>"state": true</t>
         </is>
       </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -673,11 +683,6 @@
       <c r="Q5" t="inlineStr">
         <is>
           <t>"state": true</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>pass</t>
         </is>
       </c>
     </row>
@@ -730,11 +735,6 @@
           <t>"state": true</t>
         </is>
       </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -784,11 +784,6 @@
       <c r="Q7" t="inlineStr">
         <is>
           <t>"state": true</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>pass</t>
         </is>
       </c>
     </row>
@@ -838,11 +833,6 @@
       <c r="Q8" t="inlineStr">
         <is>
           <t>"code": 1</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>pass</t>
         </is>
       </c>
     </row>
@@ -900,11 +890,6 @@
           <t>"code": 1</t>
         </is>
       </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -950,11 +935,6 @@
       <c r="Q10" t="inlineStr">
         <is>
           <t>"msg": "成功"</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>pass</t>
         </is>
       </c>
     </row>
@@ -1017,11 +997,6 @@
           <t>"msg": "成功"</t>
         </is>
       </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>Filed</t>
-        </is>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1077,11 +1052,6 @@
           <t>"msg": "成功"</t>
         </is>
       </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1128,11 +1098,6 @@
           <t>"state": true</t>
         </is>
       </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1183,11 +1148,6 @@
           <t>"state": true</t>
         </is>
       </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1231,11 +1191,6 @@
       <c r="Q15" t="inlineStr">
         <is>
           <t>"state": true</t>
-        </is>
-      </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>pass</t>
         </is>
       </c>
     </row>
@@ -1289,11 +1244,6 @@
           <t>"code": 1</t>
         </is>
       </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1346,11 +1296,6 @@
           <t>"code": 1</t>
         </is>
       </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1391,10 +1336,10 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>page: 1
-limit: 10
-keywords: 
-startDate: 
+          <t>page:1
+limit:10
+keywords:秦敏
+startDate:
 endDate:</t>
         </is>
       </c>
@@ -1403,14 +1348,14 @@
           <t>select name keywords from fw_user where tel='18883612485' ;</t>
         </is>
       </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>SqlExecuteResultRow_18_fw_user</t>
+        </is>
+      </c>
       <c r="Q18" t="inlineStr">
         <is>
           <t>"code": 1</t>
-        </is>
-      </c>
-      <c r="R18" t="inlineStr">
-        <is>
-          <t>pass</t>
         </is>
       </c>
     </row>
@@ -1456,11 +1401,6 @@
       <c r="Q19" t="inlineStr">
         <is>
           <t>"code": '0'</t>
-        </is>
-      </c>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>pass</t>
         </is>
       </c>
     </row>
@@ -1518,11 +1458,6 @@
           <t>"code": 1</t>
         </is>
       </c>
-      <c r="R20" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/dataCase/run/DataCase_ALL.xlsx
+++ b/dataCase/run/DataCase_ALL.xlsx
@@ -52,8 +52,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -354,7 +357,7 @@
   <dimension ref="A1:R20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
@@ -549,39 +552,24 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>course_name_id:195
-course_name_sn:JB_04_02_01
-course_name:有义方智慧父母大学
-course_class_id:10
-price:4900.00
-member_price:4900.00
-least_price:4900.00
+          <t>course_name_id:203
+course_name_sn:ZB_01_08_08
+course_name:全网创新营销-疫情版
+course_class_id:1
+price:3980.00
+member_price:0.00
+least_price:3980.00
 is_deposit:1
 hr_id:2
-meth_id:2
+meth_id:13
 use_card_number:1
 is_auto_refund:0
-is_refund_audit:0
-course_broker_id:1
-create_admin_id:0
-current_daiding_course_id:1629
-is_auto_legacy:0
-is_put:1
-legacy_hours:0
-org_id:1
-perf_comp_id:0
-update_admin_id:2727
-use_ticket_number:1</t>
+is_refund_audit:0</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
           <t>select *from nc_course_name where is_put=1 and course_name_id&lt;50 order by create_time desc ;</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>SqlExecuteResultRow_3_nc_course_name</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
@@ -636,7 +624,7 @@
         </is>
       </c>
     </row>
-    <row r="5">
+    <row r="5" ht="148.5" customHeight="1">
       <c r="A5" t="n">
         <v>4</v>
       </c>
@@ -673,11 +661,21 @@
       <c r="H5" t="n">
         <v>3</v>
       </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>nicke_name: 漂杳
-timestamp: 1584260570939
-sign: fbcf456f22eac4ea61d9beb5ec82ef7ca30f4409</t>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>dependKeyRow_5</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>dependFieldRow_5</t>
+        </is>
+      </c>
+      <c r="K5" s="1" t="inlineStr">
+        <is>
+          <t>nicke_name:漂杳
+timestamp:1584260570939
+sign:fbcf456f22eac4ea61d9beb5ec82ef7ca30f4409</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
@@ -773,12 +771,22 @@
       <c r="H7" t="n">
         <v>5</v>
       </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>dependKeyRow_7</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>dependFieldRow_7</t>
+        </is>
+      </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>co_id: 15738
-order_id: 11665
-timestamp: 1584260691009
-sign: d50531264aa45c885f3cea8b5d2b956a3b6df9da</t>
+          <t>co_id:15738
+order_id:11665
+timestamp:1584260691009
+sign:d50531264aa45c885f3cea8b5d2b956a3b6df9da</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
@@ -873,16 +881,26 @@
       <c r="H9" t="n">
         <v>7</v>
       </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>dependKeyRow_9</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>dependFieldRow_9</t>
+        </is>
+      </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>ban_name: 校长，别再那么累
-link: https://fuwuhao.lpcollege.com/#/courseDetails/1502
-sort: 13
-is_show: 1
-file: 
-image: https://crm.mp.image.lpcollege.com/fwh/official/banner/2019-10-24/de88ac1caa5ede52023cae58a2f7ee54.jpg
-__token__: b09ef4430749cd5ecb6fb86e7a8d12f7
-ban_id: 8</t>
+          <t>ban_name:校长，别再那么累
+link:https://fuwuhao.lpcollege.com/#/courseDetails/1502
+sort:13
+is_show:1
+file:
+image:https://crm.mp.image.lpcollege.com/fwh/official/banner/2019-10-24/de88ac1caa5ede52023cae58a2f7ee54.jpg
+__token__:b09ef4430749cd5ecb6fb86e7a8d12f7
+ban_id:8</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
@@ -975,21 +993,31 @@
       <c r="H11" t="n">
         <v>9</v>
       </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>dependKeyRow_11</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>dependFieldRow_11</t>
+        </is>
+      </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>card_manage_id: 17
-keys[0]: 0
-study_card_name: 微笑绿萝加盟
-price: 98000.00
-number: 0
-least_price: 1.00
-org_id: 4
-meth_id: 16
-year: 3
-month: 0
-ticket[0][ticket_manage_id]: 10
-ticket[0][ticket_num]: 4
-period: 36</t>
+          <t>card_manage_id:25
+keys[0]:0
+study_card_name:教育家大学高级版
+price:29800.00
+number:1
+least_price:1.00
+org_id:4
+meth_id:16
+year:3
+month:0
+ticket[0][ticket_manage_id]:10
+ticket[0][ticket_num]:4
+period:14</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
@@ -1136,11 +1164,21 @@
       <c r="H14" t="n">
         <v>12</v>
       </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>dependKeyRow_14</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>dependFieldRow_14</t>
+        </is>
+      </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>sc_code_id: 1
-timestamp: 1584261510843
-sign: fd206c2bd9c2b9e897e8867a75558219d4edfb12</t>
+          <t>sc_code_id:1
+timestamp:1584261510843
+sign:fd206c2bd9c2b9e897e8867a75558219d4edfb12</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
@@ -1282,13 +1320,23 @@
       <c r="H17" t="n">
         <v>15</v>
       </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>dependKeyRow_17</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>dependFieldRow_17</t>
+        </is>
+      </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>name: 课程管理员
-auth[0]: 1
-auth[2]: 142
-__token__: 01d2c62f181ebf88af76ce66f8b61ac5
-id: 3</t>
+          <t>name:课程管理员
+auth[0]:[
+auth[2]:1
+__token__:01d2c62f181ebf88af76ce66f8b61ac5
+id:3</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
@@ -1334,6 +1382,8 @@
       <c r="H18" t="n">
         <v>15</v>
       </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
           <t>page:1
@@ -1400,7 +1450,7 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>"code": '0'</t>
+          <t>"code": "0"</t>
         </is>
       </c>
     </row>

--- a/dataCase/run/DataCase_ALL.xlsx
+++ b/dataCase/run/DataCase_ALL.xlsx
@@ -357,7 +357,7 @@
   <dimension ref="A1:R20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
@@ -500,6 +500,11 @@
       <c r="Q2" t="inlineStr">
         <is>
           <t>"msg": "成功"</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>pass</t>
         </is>
       </c>
     </row>
@@ -577,6 +582,11 @@
           <t>"msg": "成功"</t>
         </is>
       </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -623,6 +633,11 @@
           <t>"state": true</t>
         </is>
       </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
     </row>
     <row r="5" ht="148.5" customHeight="1">
       <c r="A5" t="n">
@@ -681,6 +696,11 @@
       <c r="Q5" t="inlineStr">
         <is>
           <t>"state": true</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>pass</t>
         </is>
       </c>
     </row>
@@ -733,6 +753,11 @@
           <t>"state": true</t>
         </is>
       </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -792,6 +817,11 @@
       <c r="Q7" t="inlineStr">
         <is>
           <t>"state": true</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>pass</t>
         </is>
       </c>
     </row>
@@ -841,6 +871,11 @@
       <c r="Q8" t="inlineStr">
         <is>
           <t>"code": 1</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>pass</t>
         </is>
       </c>
     </row>
@@ -908,6 +943,11 @@
           <t>"code": 1</t>
         </is>
       </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -953,6 +993,11 @@
       <c r="Q10" t="inlineStr">
         <is>
           <t>"msg": "成功"</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>pass</t>
         </is>
       </c>
     </row>
@@ -1025,6 +1070,11 @@
           <t>"msg": "成功"</t>
         </is>
       </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>Filed</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1080,6 +1130,11 @@
           <t>"msg": "成功"</t>
         </is>
       </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1126,6 +1181,11 @@
           <t>"state": true</t>
         </is>
       </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1186,6 +1246,11 @@
           <t>"state": true</t>
         </is>
       </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1229,6 +1294,11 @@
       <c r="Q15" t="inlineStr">
         <is>
           <t>"state": true</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>pass</t>
         </is>
       </c>
     </row>
@@ -1282,6 +1352,11 @@
           <t>"code": 1</t>
         </is>
       </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1344,6 +1419,11 @@
           <t>"code": 1</t>
         </is>
       </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1408,6 +1488,11 @@
           <t>"code": 1</t>
         </is>
       </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1451,6 +1536,11 @@
       <c r="Q19" t="inlineStr">
         <is>
           <t>"code": "0"</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>pass</t>
         </is>
       </c>
     </row>
@@ -1508,6 +1598,11 @@
           <t>"code": 1</t>
         </is>
       </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/dataCase/run/DataCase_ALL.xlsx
+++ b/dataCase/run/DataCase_ALL.xlsx
@@ -3,23 +3,23 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13530" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28800" windowHeight="12540" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="datacase" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="21">
     <font>
       <name val="宋体"/>
-      <family val="2"/>
+      <charset val="134"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -27,20 +27,350 @@
     <font>
       <name val="宋体"/>
       <charset val="134"/>
-      <family val="3"/>
-      <sz val="9"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -48,9 +378,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -58,8 +630,56 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
@@ -344,7 +964,6 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
@@ -357,10 +976,10 @@
   <dimension ref="A1:R20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -1132,7 +1751,7 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>pass</t>
+          <t>Filed</t>
         </is>
       </c>
     </row>
@@ -1462,8 +2081,6 @@
       <c r="H18" t="n">
         <v>15</v>
       </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
           <t>page:1
@@ -1540,7 +2157,7 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>pass</t>
+          <t>Filed</t>
         </is>
       </c>
     </row>
